--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:37+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -784,7 +784,7 @@
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-enrollment-type</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-patient-enrollment-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1302,7 +1302,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.9609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4325,10 +4325,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T11:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:58+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:24+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>HIV Episode Of Care</t>
+    <t>Patient Enrollment Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is to record the patient HIV Management Programme Enrollment details.</t>
+    <t>This profile is used to record the enrolment type at the time of the encounter.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4325,10 +4325,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>

--- a/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
